--- a/document/【ファイルサーバ】PG一覧.xlsx
+++ b/document/【ファイルサーバ】PG一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ri\Google ドライブ\fileServer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujit\GoogleDrive\ファイルサーバー課題\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164C9CAE-A624-4A64-8C12-FB391FF1F1E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2550A09A-B378-4913-98B6-FFF1C42659CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="1" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7A6A5EC5-19C9-4325-803F-97EC1E6911BA}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>ファイルサーバ課題</t>
     <rPh sb="7" eb="9">
@@ -211,10 +211,6 @@
     <rPh sb="4" eb="6">
       <t>カンリ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>File.java</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -365,6 +361,24 @@
     <t>初版作成</t>
     <rPh sb="0" eb="4">
       <t>ショハンサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FileData.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田</t>
+    <rPh sb="0" eb="2">
+      <t>フジタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンティティクラスのFile.javaをFileData.javaに変更</t>
+    <rPh sb="34" eb="36">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,6 +536,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -531,71 +593,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -913,226 +927,234 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E3BA21-A698-4380-9620-178E028BF4AA}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="11.0703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A3" s="9">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>44179</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="10">
-        <v>44179</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A4" s="9">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A5" s="9">
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="3">
+        <v>44181</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A6" s="9">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A7" s="9">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A8" s="9">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A9" s="9">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A10" s="9">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A11" s="9">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A12" s="9">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="20"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A13" s="9">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="20"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A14" s="9">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A15" s="9">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A16" s="9">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A17" s="9">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="20"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A18" s="9">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="20"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A19" s="9">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="20"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A20" s="9">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="20"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1145,102 +1167,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A12897-9ED0-4A50-A1EE-DFB39379EF9B}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="8" width="9.140625" style="22"/>
-    <col min="9" max="9" width="9.5" style="22" customWidth="1"/>
-    <col min="10" max="12" width="9.140625" style="22"/>
+    <col min="4" max="8" width="9.125" style="9"/>
+    <col min="9" max="9" width="9.5" style="9" customWidth="1"/>
+    <col min="10" max="12" width="9.125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="16"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="15" t="s">
+      <c r="L1" s="15"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="17">
+      <c r="J2" s="25"/>
+      <c r="K2" s="16">
         <v>44179</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A3" s="1" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="15" t="s">
+      <c r="J3" s="24"/>
+      <c r="K3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="15"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.65">
+      <c r="J4" s="25"/>
+      <c r="K4" s="16">
+        <v>44181</v>
+      </c>
+      <c r="L4" s="15"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -1251,420 +1277,478 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.65">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A7" s="21">
-        <f>ROW(A7)-6</f>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <f t="shared" ref="A7:A21" si="0">ROW(A7)-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A8" s="21">
-        <f>ROW(A8)-6</f>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B8" s="24" t="str">
-        <f>B7</f>
+      <c r="B8" s="11" t="str">
+        <f t="shared" ref="B8:B15" si="1">B7</f>
         <v>ユーザ管理</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19" t="s">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" spans="1:15" ht="40.299999999999997" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="21">
-        <f>ROW(A9)-6</f>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B9" s="24" t="str">
-        <f>B8</f>
+      <c r="B9" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19" t="s">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" spans="1:15" ht="38.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="21">
-        <f>ROW(A10)-6</f>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="str">
-        <f>B9</f>
+      <c r="B10" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="19" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A11" s="21">
-        <f>ROW(A11)-6</f>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B11" s="24" t="str">
-        <f>B10</f>
+      <c r="B11" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>ユーザ管理</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="19" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>ユーザ管理</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A12" s="21">
-        <f>ROW(A12)-6</f>
-        <v>6</v>
-      </c>
-      <c r="B12" s="24" t="str">
-        <f>B11</f>
-        <v>ユーザ管理</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19" t="s">
+      <c r="E15" s="13"/>
+      <c r="F15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A13" s="21">
-        <f>ROW(A13)-6</f>
-        <v>7</v>
-      </c>
-      <c r="B13" s="24" t="str">
-        <f>B12</f>
-        <v>ユーザ管理</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A14" s="21">
-        <f>ROW(A14)-6</f>
-        <v>8</v>
-      </c>
-      <c r="B14" s="24" t="str">
-        <f>B13</f>
-        <v>ユーザ管理</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A15" s="21">
-        <f>ROW(A15)-6</f>
-        <v>9</v>
-      </c>
-      <c r="B15" s="24" t="str">
-        <f>B14</f>
-        <v>ユーザ管理</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.65">
-      <c r="A16" s="21">
-        <f>ROW(A16)-6</f>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19" t="s">
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A17" s="21">
-        <f>ROW(A17)-6</f>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="11" t="str">
         <f>B16</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="str">
+        <f t="shared" ref="B18:B20" si="2">B17</f>
+        <v>ファイル管理</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="21">
-        <f>ROW(A18)-6</f>
-        <v>12</v>
-      </c>
-      <c r="B18" s="24" t="str">
-        <f t="shared" ref="B18:B20" si="0">B17</f>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+    </row>
+    <row r="19" spans="1:12" ht="56.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>ファイル管理</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="19" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" spans="1:12" ht="56.15" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="21">
-        <f>ROW(A19)-6</f>
-        <v>13</v>
-      </c>
-      <c r="B19" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="str">
+        <f t="shared" si="2"/>
         <v>ファイル管理</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="19" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A20" s="21">
-        <f>ROW(A20)-6</f>
-        <v>14</v>
-      </c>
-      <c r="B20" s="24" t="str">
-        <f t="shared" si="0"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="str">
+        <f t="shared" ref="B21" si="3">B20</f>
         <v>ファイル管理</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.65">
-      <c r="A21" s="21">
-        <f>ROW(A21)-6</f>
-        <v>15</v>
-      </c>
-      <c r="B21" s="24" t="str">
-        <f t="shared" ref="B21" si="1">B20</f>
-        <v>ファイル管理</v>
-      </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="19" t="s">
+      <c r="C21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19" t="s">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:I21"/>
@@ -1681,66 +1765,9 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>